--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,309 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H2">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I2">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J2">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N2">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q2">
-        <v>1.525079245575362</v>
+        <v>0.4638486678485</v>
       </c>
       <c r="R2">
-        <v>1.525079245575362</v>
+        <v>2.783092007091</v>
       </c>
       <c r="S2">
-        <v>0.02361320375102848</v>
+        <v>0.00478663479322701</v>
       </c>
       <c r="T2">
-        <v>0.02361320375102848</v>
+        <v>0.003250684390777549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.09633485901022</v>
+        <v>0.6472015</v>
       </c>
       <c r="H3">
-        <v>2.09633485901022</v>
+        <v>1.294403</v>
       </c>
       <c r="I3">
-        <v>0.07768024142879044</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J3">
-        <v>0.07768024142879044</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N3">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q3">
-        <v>5.017045769961297</v>
+        <v>1.573964708198667</v>
       </c>
       <c r="R3">
-        <v>5.017045769961297</v>
+        <v>9.443788249192</v>
       </c>
       <c r="S3">
-        <v>0.07768024142879044</v>
+        <v>0.01624235393521891</v>
       </c>
       <c r="T3">
-        <v>0.07768024142879044</v>
+        <v>0.01103045640361149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H4">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I4">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J4">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N4">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q4">
-        <v>52.6479959816249</v>
+        <v>0.6275660121660002</v>
       </c>
       <c r="R4">
-        <v>52.6479959816249</v>
+        <v>5.648094109494001</v>
       </c>
       <c r="S4">
-        <v>0.8151627922314451</v>
+        <v>0.006476097738544395</v>
       </c>
       <c r="T4">
-        <v>0.8151627922314451</v>
+        <v>0.006597040741950017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.22496521825007</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H5">
-        <v>1.22496521825007</v>
+        <v>2.626902</v>
       </c>
       <c r="I5">
-        <v>0.04539140943373137</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J5">
-        <v>0.04539140943373137</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N5">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q5">
-        <v>2.93164354929103</v>
+        <v>2.129502192592</v>
       </c>
       <c r="R5">
-        <v>2.93164354929103</v>
+        <v>19.165519733328</v>
       </c>
       <c r="S5">
-        <v>0.04539140943373137</v>
+        <v>0.02197516128394554</v>
       </c>
       <c r="T5">
-        <v>0.04539140943373137</v>
+        <v>0.0223855537939574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02960683953876</v>
+        <v>3.540639</v>
       </c>
       <c r="H6">
-        <v>1.02960683953876</v>
+        <v>10.621917</v>
       </c>
       <c r="I6">
-        <v>0.03815235315500464</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J6">
-        <v>0.03815235315500464</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N6">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q6">
-        <v>2.46410282061048</v>
+        <v>2.537572430661001</v>
       </c>
       <c r="R6">
-        <v>2.46410282061048</v>
+        <v>22.838151875949</v>
       </c>
       <c r="S6">
-        <v>0.03815235315500464</v>
+        <v>0.02618619676817264</v>
       </c>
       <c r="T6">
-        <v>0.03815235315500464</v>
+        <v>0.02667523158709822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.540639</v>
+      </c>
+      <c r="H7">
+        <v>10.621917</v>
+      </c>
+      <c r="I7">
+        <v>0.1150430856889177</v>
+      </c>
+      <c r="J7">
+        <v>0.1171915486778959</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N7">
+        <v>7.295864</v>
+      </c>
+      <c r="O7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q7">
+        <v>8.610673539032</v>
+      </c>
+      <c r="R7">
+        <v>77.496061851288</v>
+      </c>
+      <c r="S7">
+        <v>0.08885688892074502</v>
+      </c>
+      <c r="T7">
+        <v>0.09051631709079766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H8">
+        <v>70.271782</v>
+      </c>
+      <c r="I8">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J8">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.150097</v>
+      </c>
+      <c r="O8">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P8">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q8">
+        <v>16.78790529587267</v>
+      </c>
+      <c r="R8">
+        <v>151.091147662854</v>
+      </c>
+      <c r="S8">
+        <v>0.1732409235265285</v>
+      </c>
+      <c r="T8">
+        <v>0.1764762480151257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H9">
+        <v>70.271782</v>
+      </c>
+      <c r="I9">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J9">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.295864</v>
+      </c>
+      <c r="O9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q9">
+        <v>56.96592938996089</v>
+      </c>
+      <c r="R9">
+        <v>512.6933645096479</v>
+      </c>
+      <c r="S9">
+        <v>0.5878535792961675</v>
+      </c>
+      <c r="T9">
+        <v>0.5988319153734121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.731273</v>
+      </c>
+      <c r="I10">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J10">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.150097</v>
+      </c>
+      <c r="O10">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P10">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q10">
+        <v>0.8913998759423334</v>
+      </c>
+      <c r="R10">
+        <v>8.022598883481001</v>
+      </c>
+      <c r="S10">
+        <v>0.009198701983245568</v>
+      </c>
+      <c r="T10">
+        <v>0.00937049041050563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.731273</v>
+      </c>
+      <c r="I11">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J11">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.295864</v>
+      </c>
+      <c r="O11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q11">
+        <v>3.024762261652444</v>
+      </c>
+      <c r="R11">
+        <v>27.222860354872</v>
+      </c>
+      <c r="S11">
+        <v>0.03121369810119727</v>
+      </c>
+      <c r="T11">
+        <v>0.03179662296554678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.045475</v>
+      </c>
+      <c r="H12">
+        <v>2.09095</v>
+      </c>
+      <c r="I12">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J12">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.150097</v>
+      </c>
+      <c r="O12">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P12">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q12">
+        <v>0.7492908870250002</v>
+      </c>
+      <c r="R12">
+        <v>4.495745322150001</v>
+      </c>
+      <c r="S12">
+        <v>0.007732224060743074</v>
+      </c>
+      <c r="T12">
+        <v>0.005251083725003974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.045475</v>
+      </c>
+      <c r="H13">
+        <v>2.09095</v>
+      </c>
+      <c r="I13">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J13">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.295864</v>
+      </c>
+      <c r="O13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q13">
+        <v>2.542547805133334</v>
+      </c>
+      <c r="R13">
+        <v>15.2552868308</v>
+      </c>
+      <c r="S13">
+        <v>0.02623753959226453</v>
+      </c>
+      <c r="T13">
+        <v>0.01781835550221334</v>
       </c>
     </row>
   </sheetData>
